--- a/Resources/certificationDataRumeal.xlsx
+++ b/Resources/certificationDataRumeal.xlsx
@@ -151,9 +151,6 @@
     <t>Miller</t>
   </si>
   <si>
-    <t>Vyasachar</t>
-  </si>
-  <si>
     <t>Mohan</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Preferred Name</t>
+  </si>
+  <si>
+    <t>VyasacharVyasacharVyasachar</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -535,6 +535,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,7 +644,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -673,6 +674,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,7 +696,37 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -758,26 +790,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1552,35 +1564,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A1:H6"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Discipline" dataDxfId="32"/>
-    <tableColumn id="2" name="Vision" dataDxfId="31"/>
-    <tableColumn id="3" name="Level One Chair Umpire" dataDxfId="30"/>
-    <tableColumn id="4" name="Level One Line Umpire" dataDxfId="29"/>
-    <tableColumn id="5" name="Level One Referee Course" dataDxfId="28"/>
-    <tableColumn id="6" name="Level One Roving Umpire Course" dataDxfId="27"/>
-    <tableColumn id="7" name="Level Two Referee" dataDxfId="26"/>
-    <tableColumn id="8" name="Level Two Roving Umpire" dataDxfId="25"/>
+    <tableColumn id="1" name="Discipline" dataDxfId="33"/>
+    <tableColumn id="2" name="Vision" dataDxfId="32"/>
+    <tableColumn id="3" name="Level One Chair Umpire" dataDxfId="31"/>
+    <tableColumn id="4" name="Level One Line Umpire" dataDxfId="30"/>
+    <tableColumn id="5" name="Level One Referee Course" dataDxfId="29"/>
+    <tableColumn id="6" name="Level One Roving Umpire Course" dataDxfId="28"/>
+    <tableColumn id="7" name="Level Two Referee" dataDxfId="27"/>
+    <tableColumn id="8" name="Level Two Roving Umpire" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I42" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I42" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:I42"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="First Name" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="Preferred Name" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" name="Email" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Roving Umpire (Sectional)" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Roving Umpire (USTA)" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Chair Umpire (Sectional, USTA, National, Professional)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Referee (Sectional, USTA, National, Professional)" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Line Umpire (USTA, National, Professional)" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="First Name" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="9" name="Preferred Name" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Email" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Roving Umpire (Sectional)" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Roving Umpire (USTA)" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" name="Chair Umpire (Sectional, USTA, National, Professional)" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Referee (Sectional, USTA, National, Professional)" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="Line Umpire (USTA, National, Professional)" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2082,7 +2094,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A2:AW498">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2112,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2132,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>16</v>
@@ -2158,7 +2170,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>18</v>
@@ -2511,11 +2523,11 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -2538,11 +2550,11 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -2565,11 +2577,11 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -2592,11 +2604,11 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -2619,11 +2631,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
@@ -2646,11 +2658,11 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
@@ -2673,11 +2685,11 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -2700,11 +2712,11 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
@@ -2727,11 +2739,11 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
@@ -2754,11 +2766,11 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
@@ -2781,11 +2793,11 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -2812,7 +2824,7 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -2835,11 +2847,11 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -2862,11 +2874,11 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -2889,11 +2901,11 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
@@ -2916,11 +2928,11 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -2943,11 +2955,11 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -2970,11 +2982,11 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -2997,11 +3009,11 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
@@ -3024,11 +3036,11 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -3051,11 +3063,11 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -3078,11 +3090,11 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -3105,11 +3117,11 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -3132,11 +3144,11 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -3159,11 +3171,11 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -3190,7 +3202,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -3213,11 +3225,11 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
@@ -3240,11 +3252,11 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
@@ -3266,18 +3278,18 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:AP497 E2:I507">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:I507 J2:AP496">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43:I1048576 F2:I42 J2:XFD1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
       <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:I42 E43:I1048576 J2:XFD1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
